--- a/templates/excel/datos.xlsx
+++ b/templates/excel/datos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P108\Desktop\python\rmg\reportSerices\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478419B3-DE06-4D92-90A2-3DB2081B40C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B887CA3E-00B2-45A1-9333-F5370EDAB221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-12720" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,19 +25,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>test</t>
+    <t>Version</t>
   </si>
   <si>
-    <t>test2</t>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>{{nombre}}</t>
+  </si>
+  <si>
+    <t>{{edad}}</t>
+  </si>
+  <si>
+    <t>{{version}}</t>
+  </si>
+  <si>
+    <t>{{empresa}}</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +60,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -62,12 +90,187 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +286,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C99503-FF29-7098-78A9-20B17BCD4911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="123825"/>
+          <a:ext cx="790575" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,207 +606,600 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K37" sqref="K37:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>4</v>
       </c>
-      <c r="B2">
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="2">
+        <f>SUM(B9:B36)</f>
+        <v>0</v>
       </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>25</v>
-      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="D1:K4"/>
+    <mergeCell ref="L1:M4"/>
+    <mergeCell ref="D5:K8"/>
+    <mergeCell ref="L5:M8"/>
+    <mergeCell ref="A1:C8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>